--- a/documents/マスタスケジュール.xlsx
+++ b/documents/マスタスケジュール.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yokota_435\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E16D7BD-C585-435F-AAEE-CB4B5639072E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3915CD6-17B7-453E-A73F-F275CFCD422C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2AA99F15-A6BB-47FD-89ED-AD21A7D6DCD8}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="18270" windowHeight="10200" xr2:uid="{2AA99F15-A6BB-47FD-89ED-AD21A7D6DCD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="マスタスケジュール" sheetId="1" r:id="rId1"/>
+    <sheet name="要件定義" sheetId="2" r:id="rId2"/>
+    <sheet name="基本設計" sheetId="3" r:id="rId3"/>
+    <sheet name="詳細設計" sheetId="4" r:id="rId4"/>
+    <sheet name="製造" sheetId="5" r:id="rId5"/>
+    <sheet name="単体テスト" sheetId="6" r:id="rId6"/>
+    <sheet name="結合テスト" sheetId="7" r:id="rId7"/>
+    <sheet name="総合テスト" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>8月</t>
     <rPh sb="1" eb="2">
@@ -139,6 +146,495 @@
   </si>
   <si>
     <t>リリース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QA記載</t>
+    <rPh sb="2" eb="4">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能要件</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要件</t>
+    <rPh sb="0" eb="5">
+      <t>ヒキノウヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能要件の整理</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要件の整理</t>
+    <rPh sb="0" eb="5">
+      <t>ヒキノウヨウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その都度記載していく。</t>
+    <rPh sb="2" eb="4">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクティビティ図</t>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ一覧</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務設計</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務フロー図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム化の背景・目的</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム化対象業務一覧</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目定義</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ処理フロー</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ処理定義</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB系</t>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRUD図</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム設計</t>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク構成図</t>
+    <rPh sb="6" eb="9">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション機能構成図</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア構成図</t>
+    <rPh sb="6" eb="9">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードウェア構成図</t>
+    <rPh sb="6" eb="9">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●以下のポイントに分けて設計</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面で実装する機能のID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移前後のURI定義</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装対象のクラス名</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理フローをアクティビティ図で</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目とDBのマッピング定義</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB物理設計</t>
+    <rPh sb="2" eb="6">
+      <t>ブツリセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索・一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○サーバー→DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○サーバー内処理</t>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○クライアント→サーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DTOとDB項目のマッピング定義</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○クライアント→DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目からDTOへのマッピング定義</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境構築</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面全体系</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウトor概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -146,7 +642,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +658,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +682,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,12 +721,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -227,6 +733,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,540 +1675,1692 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="45" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" customWidth="1"/>
+    <col min="2" max="45" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1" t="s">
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1" t="s">
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1" t="s">
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1" t="s">
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79EBDD-A430-4F2B-AA54-9C8269D742F6}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.9140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31663D74-FA9C-405A-A434-0C85BE439976}">
+  <dimension ref="B2:E40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.9140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACCE9CA-2594-41EC-AD41-4F3AEA22FBA6}">
+  <dimension ref="B2:E32"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.9140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A04F1CA-13DE-470D-85D5-FEB91427EE2A}">
+  <dimension ref="B2:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.9140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9330E00-6F58-46AB-954D-261D613C81B2}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.9140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733300BA-3D37-4088-9371-424A72BA16C0}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.9140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903453AC-90D8-4B29-A6AA-AD09F01A3610}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.9140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/マスタスケジュール.xlsx
+++ b/documents/マスタスケジュール.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3915CD6-17B7-453E-A73F-F275CFCD422C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC589FB-5C75-4BD4-9BD9-568E8568712C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="18270" windowHeight="10200" xr2:uid="{2AA99F15-A6BB-47FD-89ED-AD21A7D6DCD8}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="18270" windowHeight="10200" tabRatio="792" activeTab="1" xr2:uid="{2AA99F15-A6BB-47FD-89ED-AD21A7D6DCD8}"/>
   </bookViews>
   <sheets>
     <sheet name="マスタスケジュール" sheetId="1" r:id="rId1"/>
-    <sheet name="要件定義" sheetId="2" r:id="rId2"/>
-    <sheet name="基本設計" sheetId="3" r:id="rId3"/>
-    <sheet name="詳細設計" sheetId="4" r:id="rId4"/>
-    <sheet name="製造" sheetId="5" r:id="rId5"/>
-    <sheet name="単体テスト" sheetId="6" r:id="rId6"/>
-    <sheet name="結合テスト" sheetId="7" r:id="rId7"/>
-    <sheet name="総合テスト" sheetId="8" r:id="rId8"/>
+    <sheet name="BreakDown" sheetId="9" r:id="rId2"/>
+    <sheet name="要件定義" sheetId="2" r:id="rId3"/>
+    <sheet name="基本設計" sheetId="3" r:id="rId4"/>
+    <sheet name="詳細設計" sheetId="4" r:id="rId5"/>
+    <sheet name="製造" sheetId="5" r:id="rId6"/>
+    <sheet name="単体テスト" sheetId="6" r:id="rId7"/>
+    <sheet name="結合テスト" sheetId="7" r:id="rId8"/>
+    <sheet name="総合テスト" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -721,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +743,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,6 +1373,4137 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>283883</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EA7B53-E5F7-43D8-BEA3-465C85468CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="515471" y="642471"/>
+          <a:ext cx="1636058" cy="582706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Comco Library Project</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>システム開発</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>283883</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D5FBD0-7498-4E87-9151-56EB32381300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="515471" y="2009588"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>要件定義</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD14835-D9BD-4249-9B1B-A8FADB8ADAA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="1225177"/>
+          <a:ext cx="0" cy="784411"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3564830</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A150D205-2759-4BFD-B12C-F2351570DA70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3991842" y="-1433166"/>
+          <a:ext cx="784411" cy="6101095"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2744424</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4385235</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC2CD86-58D7-4AE0-B9FE-5FD8B7021DC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6614189" y="2009588"/>
+          <a:ext cx="1640811" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5441839</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533662</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CB0812-BD24-43FC-90D9-D76CC5D3B6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9311604" y="2009588"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>内部設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6259868</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43757129-EA92-4082-B716-707355D507AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5339361" y="-2780685"/>
+          <a:ext cx="784411" cy="8796133"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1226245</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324341</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA24F19D-2B8E-4F55-A36B-B22AC95BC825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11640245" y="2029962"/>
+          <a:ext cx="1638096" cy="340251"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>製造</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1098857</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2045294</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7F5F97-758D-449B-ABA3-E572EEF0285C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6498249" y="-3931083"/>
+          <a:ext cx="792561" cy="11129528"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119384</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444596</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="四角形: 角を丸くする 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FC13B4-A934-45A4-B654-B5515DACBC19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13731475" y="2029963"/>
+          <a:ext cx="1641394" cy="340251"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>単体テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1098855</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281989</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F407267C-CE46-43BD-AF28-D7F54E95FE7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7544687" y="-4977522"/>
+          <a:ext cx="792562" cy="13222407"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>531721</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190596</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1769063-8E73-4381-9E53-8C4450FE47D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16118085" y="2029963"/>
+          <a:ext cx="1633147" cy="340251"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>結合テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1098856</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>32114</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="コネクタ: カギ線 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C47F19-58E8-4337-9030-C59BCFB248B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8735931" y="-6168765"/>
+          <a:ext cx="792562" cy="15604894"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77665</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>389827</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D98420D-4092-4D71-9DAA-8C0701DB82B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18290959" y="2009589"/>
+          <a:ext cx="1626986" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>総合テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>233746</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9C6679-7263-4271-891C-B2EC1B517081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9826770" y="-7268093"/>
+          <a:ext cx="784412" cy="17770952"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>616661</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="四角形: 角を丸くする 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B065ADB-4D0C-45CD-B263-64CC2AAF73B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20490029" y="2009589"/>
+          <a:ext cx="1626985" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>運用テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>460581</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7328C5F2-7149-4B49-B1BC-FFD19B737CA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10926305" y="-8367628"/>
+          <a:ext cx="784412" cy="19970022"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1098855</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FEBB2C-D76A-44A1-B55A-1844540828AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1324501" y="2396529"/>
+          <a:ext cx="272677" cy="260793"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形: 角を丸くする 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DBD9BB-3712-4A01-962D-CEBC5F914BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1591236" y="2495177"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>要求の分析</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形: 角を丸くする 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F93F36-B307-4C12-AF0B-F95F74A5D2D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1591236" y="2980765"/>
+          <a:ext cx="1636058" cy="590176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>分析した要求を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>機能要件書として記載</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101913</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359649</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="コネクタ: カギ線 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C103158E-961F-4E41-9762-43A7BFA4ABDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="997324" y="2681940"/>
+          <a:ext cx="930089" cy="257736"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1546412</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>168462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形: 角を丸くする 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A849BDF4-66F3-4452-A1BD-127FD2F5431E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588248" y="7269257"/>
+          <a:ext cx="1888564" cy="328705"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>非機能部分の調査・分析</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101164</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359647</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="コネクタ: カギ線 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97324D51-AEEA-4A25-97B9-A26EC2B2FDD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1107329" y="4738033"/>
+          <a:ext cx="5132670" cy="258483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="四角形: 角を丸くする 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B5A320-348D-476E-B394-1E52AD491AD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588248" y="7878110"/>
+          <a:ext cx="1634564" cy="328705"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>非機能要件書の作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101165</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>41462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="コネクタ: カギ線 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2ABF9A-1F70-415F-9328-DC745EB8EF33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1411755" y="5042459"/>
+          <a:ext cx="5741523" cy="258483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3564831</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810001</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="コネクタ: カギ線 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E0BC2F-1F93-4B99-947D-D3D08C768B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7062253" y="2718106"/>
+          <a:ext cx="989855" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5446058</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="四角形: 角を丸くする 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B733446F-FBCB-49AC-A705-BBAC2C7AE908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679765" y="3167531"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5446058</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>97119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="四角形: 角を丸くする 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC7078A-7226-45A9-9A37-D70DF7E3C9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679765" y="7470590"/>
+          <a:ext cx="1636058" cy="590176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3564830</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="コネクタ: カギ線 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A60505-0421-42EE-B535-C288507B7643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4847223" y="4933136"/>
+          <a:ext cx="5419914" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1504307</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1210235</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="四角形: 角を丸くする 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5F5C40-74B9-409A-8D58-51218A019F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3439189" y="2009588"/>
+          <a:ext cx="1640811" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開発計画</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2271058</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="四角形: 角を丸くする 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48F022A-AF0A-4211-A8B8-E9B00E5AFE34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4504765" y="2495177"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業項目の洗い出し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2271058</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="四角形: 角を丸くする 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE172CE5-62AB-418E-A3BC-95F0AC4DE2D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4504765" y="2980765"/>
+          <a:ext cx="1636058" cy="328706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389830</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="コネクタ: カギ線 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6DD583-4A4B-4CE5-B320-C9B90C32AB90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2404342" y="154334"/>
+          <a:ext cx="784411" cy="2926095"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389831</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635001</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="コネクタ: カギ線 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542C2A0F-F0C8-4EA2-B626-127DDCBEA720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4223430" y="2381929"/>
+          <a:ext cx="317501" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389830</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="コネクタ: カギ線 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5BB50D-64BB-42A8-8EFB-596B234E98CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="86" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3982503" y="2622856"/>
+          <a:ext cx="799354" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3010646</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="四角形: 角を丸くする 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C362299-1E9F-4115-93F6-FBB1E4D64977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4504764" y="4034118"/>
+          <a:ext cx="2375647" cy="694765"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アローダイアグラム作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（優先順位・クリティカルパス）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389830</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>108324</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="コネクタ: カギ線 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A5B067-2099-4061-AAE7-DBE3F01EC896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="97" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3364311" y="3241047"/>
+          <a:ext cx="2035737" cy="245169"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2271058</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="四角形: 角を丸くする 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00955D72-E66A-4691-AF11-361056362ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4504765" y="4923119"/>
+          <a:ext cx="1636058" cy="328706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ガントチャート作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389830</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>37354</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="コネクタ: カギ線 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920609C1-FD9C-4F28-B72E-B65286E33667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="111" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3011326" y="3594033"/>
+          <a:ext cx="2741708" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2271058</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="四角形: 角を丸くする 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B238DB-4233-4F35-BBDA-8AB52E7A4697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4504765" y="3518647"/>
+          <a:ext cx="1636058" cy="328706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各作業の工数見積</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389830</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="コネクタ: カギ線 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7C191D-246F-4A8D-B72A-96AD18B88545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3713562" y="2891797"/>
+          <a:ext cx="1337236" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="四角形: 角を丸くする 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828C83BA-FBF5-4DA6-8A13-85B8FD6B8E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1591236" y="3742764"/>
+          <a:ext cx="1636058" cy="351117"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>業務フロー図作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101913</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359649</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="コネクタ: カギ線 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621D3639-330C-4446-866C-F410858887E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="132" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="676089" y="3003175"/>
+          <a:ext cx="1572559" cy="257736"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101164</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359647</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>164352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="コネクタ: カギ線 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E56FB3-E91C-457C-BD8C-10201E5C22D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="147" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="146050" y="3484654"/>
+          <a:ext cx="2625912" cy="258483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>183029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="四角形: 角を丸くする 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8C25C3-9D84-4025-AEA4-C096B558D996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588248" y="4755029"/>
+          <a:ext cx="1634564" cy="343646"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユースケース作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="四角形: 角を丸くする 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1879DA4-1DF2-4B36-AF49-495279C16C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588248" y="5259293"/>
+          <a:ext cx="1634564" cy="343646"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エンティティの抽出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101164</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359647</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="コネクタ: カギ線 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39DC23F3-4AC6-409C-AE48-C8585D06AC2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="150" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-106082" y="3736786"/>
+          <a:ext cx="3130176" cy="258483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52664</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="四角形: 角を丸くする 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9374C9-13D9-4A4B-B0B1-49793861A53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588248" y="8472018"/>
+          <a:ext cx="1634564" cy="343646"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>業務仕様書</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101165</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="コネクタ: カギ線 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745E4499-6DA0-4C83-9F81-60F67672E54E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="155" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1712444" y="5343148"/>
+          <a:ext cx="6342901" cy="258483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5446058</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="四角形: 角を丸くする 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87B7F4D-02CC-4F8C-81E6-E4463B8EA047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679765" y="3697941"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面遷移図</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3564831</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810001</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="コネクタ: カギ線 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA999F2A-449C-4D07-8A04-36AA64312C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="163" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6797048" y="2983311"/>
+          <a:ext cx="1520265" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5446058</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="四角形: 角を丸くする 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0191D2-A99C-4790-A3BB-AA6E9BB71235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679765" y="4303059"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アクティビティ図</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3564831</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810001</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="コネクタ: カギ線 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504B3C7B-5249-4899-B64A-FB799AA8D92D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="168" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6494489" y="3285870"/>
+          <a:ext cx="2125383" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5446058</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="四角形: 角を丸くする 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77999E14-F86C-4662-917C-F82902EB9AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679765" y="2487707"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DFD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3564831</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810001</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130735</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="コネクタ: カギ線 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DD0ABF-5D18-4892-9037-45E9979DCDCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="174" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7402165" y="2378194"/>
+          <a:ext cx="310031" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5446058</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="四角形: 角を丸くする 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A427D1-E6E2-4A77-9D0A-997096070E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679765" y="4818531"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3564831</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810001</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="コネクタ: カギ線 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C0AAD3-FAED-4461-BA93-59DF529EF734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="177" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6236753" y="3543606"/>
+          <a:ext cx="2640855" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5446058</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>186766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="四角形: 角を丸くする 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57A60F3-4132-4CC6-9AF2-A688F46BF89C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679765" y="5289178"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブル一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3564830</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="コネクタ: カギ線 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237F1F53-BEA3-4952-B252-DEC7A1E1FFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="181" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6001429" y="3778930"/>
+          <a:ext cx="3111502" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5446058</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="四角形: 角を丸くする 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FF4C3A-50BF-4470-A2F4-A7CFCA02F876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679765" y="5812119"/>
+          <a:ext cx="1636058" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブル一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3564831</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810001</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153147</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="コネクタ: カギ線 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2163E1E-B114-4FE9-BB7A-4A9AE5445C6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="186" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5739959" y="4040400"/>
+          <a:ext cx="3634443" cy="245170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="四角形: 角を丸くする 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB0DFAD-C4BC-4B31-9239-66B68255C7C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588248" y="6242049"/>
+          <a:ext cx="1634564" cy="343646"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>物理設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101164</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359647</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="コネクタ: カギ線 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCC9BC9-6245-4789-A715-6363676FBE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-597460" y="4228164"/>
+          <a:ext cx="4112932" cy="258483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="四角形: 角を丸くする 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B622667-7F65-4F9D-8801-CE4F17E1AB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588248" y="6753783"/>
+          <a:ext cx="1634564" cy="343647"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>論理設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101165</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>67606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="コネクタ: カギ線 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15BB6C1-BC88-45DF-825B-655A7A57294A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="195" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-853327" y="4484031"/>
+          <a:ext cx="4624667" cy="258483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>141940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="四角形: 角を丸くする 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B044AF7-431D-4243-A6C1-9A131624BBC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588248" y="4179793"/>
+          <a:ext cx="1634564" cy="343647"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>処理フロー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101165</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="コネクタ: カギ線 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6381E0-351E-47A2-AF7E-BB17BBA62076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="224" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="433668" y="3197036"/>
+          <a:ext cx="2050677" cy="258483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359648</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1292412</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="四角形: 角を丸くする 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F676A61-F07F-47C4-84C2-269DE585B3FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588248" y="5772149"/>
+          <a:ext cx="1634564" cy="343646"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>概念設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101164</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359647</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="235" name="コネクタ: カギ線 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECBC1A2-C101-4865-BF91-81631F7D9C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="234" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-362510" y="3993214"/>
+          <a:ext cx="3643032" cy="258483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1673,7 +5808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EC0B0C-D958-4BA4-8791-29464DC79B6B}">
   <dimension ref="A1:AS10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1685,72 +5822,72 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7" t="s">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7" t="s">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7" t="s">
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7" t="s">
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7" t="s">
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
@@ -2214,6 +6351,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE05C7A-8D08-437D-AA53-5EC1AF9C5EF6}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.9140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79EBDD-A430-4F2B-AA54-9C8269D742F6}">
   <dimension ref="B2:E15"/>
   <sheetViews>
@@ -2343,11 +6508,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31663D74-FA9C-405A-A434-0C85BE439976}">
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2673,7 +6840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACCE9CA-2594-41EC-AD41-4F3AEA22FBA6}">
   <dimension ref="B2:E32"/>
   <sheetViews>
@@ -2851,7 +7018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A04F1CA-13DE-470D-85D5-FEB91427EE2A}">
   <dimension ref="B2:E25"/>
   <sheetViews>
@@ -3035,7 +7202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9330E00-6F58-46AB-954D-261D613C81B2}">
   <dimension ref="B2:E14"/>
   <sheetViews>
@@ -3145,7 +7312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733300BA-3D37-4088-9371-424A72BA16C0}">
   <dimension ref="B2:E14"/>
   <sheetViews>
@@ -3255,7 +7422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903453AC-90D8-4B29-A6AA-AD09F01A3610}">
   <dimension ref="B2:E14"/>
   <sheetViews>
